--- a/outcomes/BaseWoCleanv05.xlsx
+++ b/outcomes/BaseWoCleanv05.xlsx
@@ -1,464 +1,550 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Dropbox (University of Michigan)\carlos\Work\Nhats\SkipNHATS\outcomes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1DA3EC-5484-408D-B0B6-EFBA5F04DBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HCsection" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SummaryHC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HCsection" sheetId="1" r:id="rId1"/>
+    <sheet name="SummaryHC" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
-  <si>
-    <t xml:space="preserve">fldSectionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionnaire.ITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fldResponsesID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipbyResID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdditionalSkipByResID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipbyResIDPattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simpleBoxSkip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC1PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileNotinSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,4,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1disescn10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX HC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,4,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC2J=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1cancerty8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX HC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1dementage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC2I=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1brokebon1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1brokebon2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1serdisill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1hosptstay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1hosovrnht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC7=-8,-7,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC9PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1kneesurg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC9B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1knesrgyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC9A=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC9C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1ageknesur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC9A=2,HC9B=-8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1hipsurg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1hipsrgyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC10A=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC10C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1agehipsur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC10A=2,HC10B=-8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1catarsurg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1catrsrgyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC11A=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC11C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1agecatsur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC11A=2,HC11B=-8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC12A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1bckspnsur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1backsrgyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC12A=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC12C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1agebcksrg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC12A=2,HC12B=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1heartsurg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1hartsrgyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC13A=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1agehrtsrg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC13A=2,HC13B=-8,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC14PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1fllsinmth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1worryfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1worrylimt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC15=-8,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOX HC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1faleninyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC14=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1multifall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resid=4 or HC17=-8,-7,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC20PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1aslep30mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1trbfalbck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3,4,5,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hc1sleepmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of variables available in public file in HC section: 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipped only by r1dresid: 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skipped by r1dresid and prior variables: 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining box: 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining others: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="151">
+  <si>
+    <t>fldSectionID</t>
+  </si>
+  <si>
+    <t>Questionnaire.ITEM</t>
+  </si>
+  <si>
+    <t>Variable.name</t>
+  </si>
+  <si>
+    <t>fldResponsesID</t>
+  </si>
+  <si>
+    <t>skipbyResID</t>
+  </si>
+  <si>
+    <t>AdditionalSkipByResID</t>
+  </si>
+  <si>
+    <t>skipbyResIDPattern</t>
+  </si>
+  <si>
+    <t>simpleBoxSkip</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HC1PRE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>FileNotinSP</t>
+  </si>
+  <si>
+    <t>HC1</t>
+  </si>
+  <si>
+    <t>hc1health</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>resid=4</t>
+  </si>
+  <si>
+    <t>HC2A</t>
+  </si>
+  <si>
+    <t>hc1disescn1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>HC2B</t>
+  </si>
+  <si>
+    <t>hc1disescn2</t>
+  </si>
+  <si>
+    <t>HC2C</t>
+  </si>
+  <si>
+    <t>hc1disescn3</t>
+  </si>
+  <si>
+    <t>HC2D</t>
+  </si>
+  <si>
+    <t>hc1disescn4</t>
+  </si>
+  <si>
+    <t>HC2E</t>
+  </si>
+  <si>
+    <t>hc1disescn5</t>
+  </si>
+  <si>
+    <t>HC2F</t>
+  </si>
+  <si>
+    <t>hc1disescn6</t>
+  </si>
+  <si>
+    <t>HC2G</t>
+  </si>
+  <si>
+    <t>hc1disescn7</t>
+  </si>
+  <si>
+    <t>HC2H</t>
+  </si>
+  <si>
+    <t>hc1disescn8</t>
+  </si>
+  <si>
+    <t>HC2I</t>
+  </si>
+  <si>
+    <t>hc1disescn9</t>
+  </si>
+  <si>
+    <t>HC2J</t>
+  </si>
+  <si>
+    <t>hc1disescn10</t>
+  </si>
+  <si>
+    <t>BOX HC3</t>
+  </si>
+  <si>
+    <t>HC3_1</t>
+  </si>
+  <si>
+    <t>hc1cancerty1</t>
+  </si>
+  <si>
+    <t>1,2,3,4,91</t>
+  </si>
+  <si>
+    <t>resid=4 or HC2J=2</t>
+  </si>
+  <si>
+    <t>HC3_2</t>
+  </si>
+  <si>
+    <t>hc1cancerty2</t>
+  </si>
+  <si>
+    <t>HC3_3</t>
+  </si>
+  <si>
+    <t>hc1cancerty3</t>
+  </si>
+  <si>
+    <t>HC3_4</t>
+  </si>
+  <si>
+    <t>hc1cancerty4</t>
+  </si>
+  <si>
+    <t>HC3_5</t>
+  </si>
+  <si>
+    <t>hc1cancerty5</t>
+  </si>
+  <si>
+    <t>HC3_6</t>
+  </si>
+  <si>
+    <t>hc1cancerty6</t>
+  </si>
+  <si>
+    <t>HC3_7</t>
+  </si>
+  <si>
+    <t>hc1cancerty7</t>
+  </si>
+  <si>
+    <t>HC3_8</t>
+  </si>
+  <si>
+    <t>hc1cancerty8</t>
+  </si>
+  <si>
+    <t>HC3B</t>
+  </si>
+  <si>
+    <t>BOX HC4</t>
+  </si>
+  <si>
+    <t>HC4</t>
+  </si>
+  <si>
+    <t>hc1dementage</t>
+  </si>
+  <si>
+    <t>resid=4 or HC2I=2</t>
+  </si>
+  <si>
+    <t>HC5_1</t>
+  </si>
+  <si>
+    <t>hc1brokebon1</t>
+  </si>
+  <si>
+    <t>HC5_2</t>
+  </si>
+  <si>
+    <t>hc1brokebon2</t>
+  </si>
+  <si>
+    <t>HC6</t>
+  </si>
+  <si>
+    <t>hc1serdisill</t>
+  </si>
+  <si>
+    <t>HC6A</t>
+  </si>
+  <si>
+    <t>HC7</t>
+  </si>
+  <si>
+    <t>hc1hosptstay</t>
+  </si>
+  <si>
+    <t>HC8</t>
+  </si>
+  <si>
+    <t>hc1hosovrnht</t>
+  </si>
+  <si>
+    <t>resid=4 or HC7=-8,-7,2</t>
+  </si>
+  <si>
+    <t>HC9PRE</t>
+  </si>
+  <si>
+    <t>HC9A</t>
+  </si>
+  <si>
+    <t>hc1kneesurg</t>
+  </si>
+  <si>
+    <t>HC9B</t>
+  </si>
+  <si>
+    <t>hc1knesrgyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC9A=-8,2</t>
+  </si>
+  <si>
+    <t>HC9C</t>
+  </si>
+  <si>
+    <t>hc1ageknesur</t>
+  </si>
+  <si>
+    <t>resid=4 or HC9A=2,HC9B=-8,1</t>
+  </si>
+  <si>
+    <t>HC10A</t>
+  </si>
+  <si>
+    <t>hc1hipsurg</t>
+  </si>
+  <si>
+    <t>HC10B</t>
+  </si>
+  <si>
+    <t>hc1hipsrgyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC10A=-8,2</t>
+  </si>
+  <si>
+    <t>HC10C</t>
+  </si>
+  <si>
+    <t>hc1agehipsur</t>
+  </si>
+  <si>
+    <t>resid=4 or HC10A=2,HC10B=-8,1</t>
+  </si>
+  <si>
+    <t>HC11A</t>
+  </si>
+  <si>
+    <t>hc1catarsurg</t>
+  </si>
+  <si>
+    <t>HC11B</t>
+  </si>
+  <si>
+    <t>hc1catrsrgyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC11A=-8,2</t>
+  </si>
+  <si>
+    <t>HC11C</t>
+  </si>
+  <si>
+    <t>hc1agecatsur</t>
+  </si>
+  <si>
+    <t>resid=4 or HC11A=2,HC11B=-8,1</t>
+  </si>
+  <si>
+    <t>HC12A</t>
+  </si>
+  <si>
+    <t>hc1bckspnsur</t>
+  </si>
+  <si>
+    <t>HC12B</t>
+  </si>
+  <si>
+    <t>hc1backsrgyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC12A=-8,2</t>
+  </si>
+  <si>
+    <t>HC12C</t>
+  </si>
+  <si>
+    <t>hc1agebcksrg</t>
+  </si>
+  <si>
+    <t>resid=4 or HC12A=2,HC12B=1</t>
+  </si>
+  <si>
+    <t>HC13A</t>
+  </si>
+  <si>
+    <t>hc1heartsurg</t>
+  </si>
+  <si>
+    <t>HC13B</t>
+  </si>
+  <si>
+    <t>hc1hartsrgyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC13A=-8,2</t>
+  </si>
+  <si>
+    <t>HC13C</t>
+  </si>
+  <si>
+    <t>hc1agehrtsrg</t>
+  </si>
+  <si>
+    <t>resid=4 or HC13A=2,HC13B=-8,1</t>
+  </si>
+  <si>
+    <t>HC14PRE</t>
+  </si>
+  <si>
+    <t>HC14</t>
+  </si>
+  <si>
+    <t>hc1fllsinmth</t>
+  </si>
+  <si>
+    <t>HC15</t>
+  </si>
+  <si>
+    <t>hc1worryfall</t>
+  </si>
+  <si>
+    <t>HC16</t>
+  </si>
+  <si>
+    <t>hc1worrylimt</t>
+  </si>
+  <si>
+    <t>resid=4 or HC15=-8,2</t>
+  </si>
+  <si>
+    <t>BOX HC17</t>
+  </si>
+  <si>
+    <t>HC17</t>
+  </si>
+  <si>
+    <t>hc1faleninyr</t>
+  </si>
+  <si>
+    <t>resid=4 or HC14=1</t>
+  </si>
+  <si>
+    <t>HC18</t>
+  </si>
+  <si>
+    <t>hc1multifall</t>
+  </si>
+  <si>
+    <t>resid=4 or HC17=-8,-7,2</t>
+  </si>
+  <si>
+    <t>HC19</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>HC20PRE</t>
+  </si>
+  <si>
+    <t>HC20</t>
+  </si>
+  <si>
+    <t>hc1aslep30mn</t>
+  </si>
+  <si>
+    <t>HC21</t>
+  </si>
+  <si>
+    <t>hc1trbfalbck</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7</t>
+  </si>
+  <si>
+    <t>HC22</t>
+  </si>
+  <si>
+    <t>hc1sleepmed</t>
+  </si>
+  <si>
+    <t>Total number of variables available in public file in HC section: 50</t>
+  </si>
+  <si>
+    <t>skipped only by r1dresid: 27</t>
+  </si>
+  <si>
+    <t>skipped by r1dresid and prior variables: 13</t>
+  </si>
+  <si>
+    <t>Remaining box: 10</t>
+  </si>
+  <si>
+    <t>Remaining others: 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r1dresid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">resid=4 or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hc1disescn10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=2</t>
+    </r>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>2 SP sensitive File</t>
+  </si>
+  <si>
+    <t>1 SP Public File</t>
+  </si>
+  <si>
+    <t>9 Not on File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,6 +577,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -772,14 +867,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,27 +917,28 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -840,23 +951,23 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -869,23 +980,23 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -898,23 +1009,23 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -927,23 +1038,23 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -956,23 +1067,23 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -985,23 +1096,23 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1014,23 +1125,23 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1043,23 +1154,23 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1072,23 +1183,23 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1101,23 +1212,23 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1130,42 +1241,40 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1178,23 +1287,23 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1207,23 +1316,23 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1236,23 +1345,26 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1265,23 +1377,23 @@
       <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1294,23 +1406,23 @@
       <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1323,23 +1435,23 @@
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1352,23 +1464,23 @@
       <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1381,61 +1493,51 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
       <c r="I23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
       <c r="I24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1448,23 +1550,23 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1477,23 +1579,23 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1506,23 +1608,23 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1535,23 +1637,23 @@
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1564,42 +1666,37 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
       <c r="I30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1612,23 +1709,23 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1641,23 +1738,23 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1670,42 +1767,37 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
       <c r="I34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1718,23 +1810,23 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1747,23 +1839,23 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1776,23 +1868,23 @@
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1805,23 +1897,23 @@
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1834,23 +1926,23 @@
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1863,23 +1955,23 @@
       <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1892,23 +1984,23 @@
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1921,23 +2013,23 @@
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1950,23 +2042,23 @@
       <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1979,23 +2071,23 @@
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2008,23 +2100,23 @@
       <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2037,23 +2129,23 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2066,23 +2158,23 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2095,23 +2187,23 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2124,42 +2216,37 @@
       <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>11</v>
       </c>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
       <c r="I50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2172,23 +2259,23 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2201,23 +2288,23 @@
       <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2230,42 +2317,37 @@
       <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>123</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
       <c r="I54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2278,23 +2360,23 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2307,61 +2389,51 @@
       <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>130</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>131</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
       <c r="I57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>132</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>11</v>
       </c>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
       <c r="I58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2374,23 +2446,23 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2403,23 +2475,23 @@
       <c r="D60" t="s">
         <v>137</v>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2432,16 +2504,16 @@
       <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
@@ -2450,45 +2522,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>